--- a/Clase_08/Base_Transporte_ARIMA.xlsx
+++ b/Clase_08/Base_Transporte_ARIMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminolivavazquez/Documents/Personal/Cursos_UNAM/SERIES_2022-I/Series-de-Tiempo-2021/Clase_08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F10E2D2-5A91-BB48-A9D1-ACDCCEE48C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEA35D-0EC6-E747-B71D-45013EFF664F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34120" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Periodo</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>D_May2020</t>
+  </si>
+  <si>
+    <t>D_Ene2022</t>
+  </si>
+  <si>
+    <t>D_Feb2022</t>
   </si>
 </sst>
 </file>
@@ -435,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:O260"/>
+  <dimension ref="A1:Q271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="L246" sqref="L246"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="N269" sqref="N269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +495,14 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>36526</v>
       </c>
@@ -536,8 +548,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>36557</v>
       </c>
@@ -583,8 +601,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>36586</v>
       </c>
@@ -630,8 +654,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>36617</v>
       </c>
@@ -677,8 +707,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>36647</v>
       </c>
@@ -724,8 +760,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>36678</v>
       </c>
@@ -771,8 +813,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36708</v>
       </c>
@@ -818,8 +866,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36739</v>
       </c>
@@ -865,8 +919,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36770</v>
       </c>
@@ -912,8 +972,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36800</v>
       </c>
@@ -959,8 +1025,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36831</v>
       </c>
@@ -1006,8 +1078,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36861</v>
       </c>
@@ -1053,8 +1131,14 @@
       <c r="O13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36892</v>
       </c>
@@ -1100,8 +1184,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36923</v>
       </c>
@@ -1147,8 +1237,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36951</v>
       </c>
@@ -1194,8 +1290,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>36982</v>
       </c>
@@ -1241,8 +1343,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37012</v>
       </c>
@@ -1288,8 +1396,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>37043</v>
       </c>
@@ -1335,8 +1449,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>37073</v>
       </c>
@@ -1382,8 +1502,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>37104</v>
       </c>
@@ -1429,8 +1555,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>37135</v>
       </c>
@@ -1476,8 +1608,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>37165</v>
       </c>
@@ -1523,8 +1661,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>37196</v>
       </c>
@@ -1570,8 +1714,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>37226</v>
       </c>
@@ -1617,8 +1767,14 @@
       <c r="O25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>37257</v>
       </c>
@@ -1664,8 +1820,14 @@
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>37288</v>
       </c>
@@ -1711,8 +1873,14 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>37316</v>
       </c>
@@ -1758,8 +1926,14 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>37347</v>
       </c>
@@ -1805,8 +1979,14 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>37377</v>
       </c>
@@ -1852,8 +2032,14 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>37408</v>
       </c>
@@ -1899,8 +2085,14 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>37438</v>
       </c>
@@ -1946,8 +2138,14 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>37469</v>
       </c>
@@ -1993,8 +2191,14 @@
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37500</v>
       </c>
@@ -2040,8 +2244,14 @@
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>37530</v>
       </c>
@@ -2087,8 +2297,14 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>37561</v>
       </c>
@@ -2134,8 +2350,14 @@
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37591</v>
       </c>
@@ -2181,8 +2403,14 @@
       <c r="O37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37622</v>
       </c>
@@ -2228,8 +2456,14 @@
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37653</v>
       </c>
@@ -2275,8 +2509,14 @@
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37681</v>
       </c>
@@ -2322,8 +2562,14 @@
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>37712</v>
       </c>
@@ -2369,8 +2615,14 @@
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>37742</v>
       </c>
@@ -2416,8 +2668,14 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>37773</v>
       </c>
@@ -2463,8 +2721,14 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>37803</v>
       </c>
@@ -2510,8 +2774,14 @@
       <c r="O44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>37834</v>
       </c>
@@ -2557,8 +2827,14 @@
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>37865</v>
       </c>
@@ -2604,8 +2880,14 @@
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>37895</v>
       </c>
@@ -2651,8 +2933,14 @@
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>37926</v>
       </c>
@@ -2698,8 +2986,14 @@
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>37956</v>
       </c>
@@ -2745,8 +3039,14 @@
       <c r="O49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>37987</v>
       </c>
@@ -2792,8 +3092,14 @@
       <c r="O50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>38018</v>
       </c>
@@ -2839,8 +3145,14 @@
       <c r="O51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>38047</v>
       </c>
@@ -2886,8 +3198,14 @@
       <c r="O52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>38078</v>
       </c>
@@ -2933,8 +3251,14 @@
       <c r="O53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>38108</v>
       </c>
@@ -2980,8 +3304,14 @@
       <c r="O54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>38139</v>
       </c>
@@ -3027,8 +3357,14 @@
       <c r="O55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>38169</v>
       </c>
@@ -3074,8 +3410,14 @@
       <c r="O56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>38200</v>
       </c>
@@ -3121,8 +3463,14 @@
       <c r="O57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>38231</v>
       </c>
@@ -3168,8 +3516,14 @@
       <c r="O58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>38261</v>
       </c>
@@ -3215,8 +3569,14 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>38292</v>
       </c>
@@ -3262,8 +3622,14 @@
       <c r="O60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>38322</v>
       </c>
@@ -3309,8 +3675,14 @@
       <c r="O61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>38353</v>
       </c>
@@ -3356,8 +3728,14 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>38384</v>
       </c>
@@ -3403,8 +3781,14 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>38412</v>
       </c>
@@ -3450,8 +3834,14 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>38443</v>
       </c>
@@ -3497,8 +3887,14 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>38473</v>
       </c>
@@ -3544,8 +3940,14 @@
       <c r="O66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>38504</v>
       </c>
@@ -3591,8 +3993,14 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>38534</v>
       </c>
@@ -3638,8 +4046,14 @@
       <c r="O68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>38565</v>
       </c>
@@ -3685,8 +4099,14 @@
       <c r="O69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>38596</v>
       </c>
@@ -3732,8 +4152,14 @@
       <c r="O70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>38626</v>
       </c>
@@ -3779,8 +4205,14 @@
       <c r="O71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>38657</v>
       </c>
@@ -3826,8 +4258,14 @@
       <c r="O72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>38687</v>
       </c>
@@ -3873,8 +4311,14 @@
       <c r="O73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>38718</v>
       </c>
@@ -3920,8 +4364,14 @@
       <c r="O74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38749</v>
       </c>
@@ -3967,8 +4417,14 @@
       <c r="O75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>38777</v>
       </c>
@@ -4014,8 +4470,14 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>38808</v>
       </c>
@@ -4061,8 +4523,14 @@
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>38838</v>
       </c>
@@ -4108,8 +4576,14 @@
       <c r="O78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>38869</v>
       </c>
@@ -4155,8 +4629,14 @@
       <c r="O79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38899</v>
       </c>
@@ -4202,8 +4682,14 @@
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>38930</v>
       </c>
@@ -4249,8 +4735,14 @@
       <c r="O81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38961</v>
       </c>
@@ -4296,8 +4788,14 @@
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>38991</v>
       </c>
@@ -4343,8 +4841,14 @@
       <c r="O83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>39022</v>
       </c>
@@ -4390,8 +4894,14 @@
       <c r="O84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>39052</v>
       </c>
@@ -4437,8 +4947,14 @@
       <c r="O85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>39083</v>
       </c>
@@ -4484,8 +5000,14 @@
       <c r="O86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>39114</v>
       </c>
@@ -4531,8 +5053,14 @@
       <c r="O87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>39142</v>
       </c>
@@ -4578,8 +5106,14 @@
       <c r="O88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>39173</v>
       </c>
@@ -4625,8 +5159,14 @@
       <c r="O89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>39203</v>
       </c>
@@ -4672,8 +5212,14 @@
       <c r="O90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>39234</v>
       </c>
@@ -4719,8 +5265,14 @@
       <c r="O91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>39264</v>
       </c>
@@ -4766,8 +5318,14 @@
       <c r="O92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>39295</v>
       </c>
@@ -4813,8 +5371,14 @@
       <c r="O93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>39326</v>
       </c>
@@ -4860,8 +5424,14 @@
       <c r="O94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>39356</v>
       </c>
@@ -4907,8 +5477,14 @@
       <c r="O95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>39387</v>
       </c>
@@ -4954,8 +5530,14 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>39417</v>
       </c>
@@ -5001,8 +5583,14 @@
       <c r="O97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>39448</v>
       </c>
@@ -5048,8 +5636,14 @@
       <c r="O98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>39479</v>
       </c>
@@ -5095,8 +5689,14 @@
       <c r="O99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>39508</v>
       </c>
@@ -5142,8 +5742,14 @@
       <c r="O100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>39539</v>
       </c>
@@ -5189,8 +5795,14 @@
       <c r="O101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>39569</v>
       </c>
@@ -5236,8 +5848,14 @@
       <c r="O102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>39600</v>
       </c>
@@ -5283,8 +5901,14 @@
       <c r="O103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>39630</v>
       </c>
@@ -5330,8 +5954,14 @@
       <c r="O104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>39661</v>
       </c>
@@ -5377,8 +6007,14 @@
       <c r="O105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>39692</v>
       </c>
@@ -5424,8 +6060,14 @@
       <c r="O106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>39722</v>
       </c>
@@ -5471,8 +6113,14 @@
       <c r="O107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>39753</v>
       </c>
@@ -5518,8 +6166,14 @@
       <c r="O108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>39783</v>
       </c>
@@ -5565,8 +6219,14 @@
       <c r="O109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>39814</v>
       </c>
@@ -5612,8 +6272,14 @@
       <c r="O110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>39845</v>
       </c>
@@ -5659,8 +6325,14 @@
       <c r="O111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>39873</v>
       </c>
@@ -5706,8 +6378,14 @@
       <c r="O112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>39904</v>
       </c>
@@ -5753,8 +6431,14 @@
       <c r="O113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>39934</v>
       </c>
@@ -5800,8 +6484,14 @@
       <c r="O114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>39965</v>
       </c>
@@ -5847,8 +6537,14 @@
       <c r="O115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>39995</v>
       </c>
@@ -5894,8 +6590,14 @@
       <c r="O116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>40026</v>
       </c>
@@ -5941,8 +6643,14 @@
       <c r="O117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>40057</v>
       </c>
@@ -5988,8 +6696,14 @@
       <c r="O118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>40087</v>
       </c>
@@ -6035,8 +6749,14 @@
       <c r="O119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>40118</v>
       </c>
@@ -6082,8 +6802,14 @@
       <c r="O120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>40148</v>
       </c>
@@ -6129,8 +6855,14 @@
       <c r="O121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>40179</v>
       </c>
@@ -6176,8 +6908,14 @@
       <c r="O122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>40210</v>
       </c>
@@ -6223,8 +6961,14 @@
       <c r="O123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>40238</v>
       </c>
@@ -6270,8 +7014,14 @@
       <c r="O124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>40269</v>
       </c>
@@ -6317,8 +7067,14 @@
       <c r="O125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>40299</v>
       </c>
@@ -6364,8 +7120,14 @@
       <c r="O126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>40330</v>
       </c>
@@ -6411,8 +7173,14 @@
       <c r="O127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>40360</v>
       </c>
@@ -6458,8 +7226,14 @@
       <c r="O128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>40391</v>
       </c>
@@ -6505,8 +7279,14 @@
       <c r="O129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>40422</v>
       </c>
@@ -6552,8 +7332,14 @@
       <c r="O130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>40452</v>
       </c>
@@ -6599,8 +7385,14 @@
       <c r="O131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>40483</v>
       </c>
@@ -6646,8 +7438,14 @@
       <c r="O132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>40513</v>
       </c>
@@ -6693,8 +7491,14 @@
       <c r="O133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>40544</v>
       </c>
@@ -6740,8 +7544,14 @@
       <c r="O134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>40575</v>
       </c>
@@ -6787,8 +7597,14 @@
       <c r="O135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>40603</v>
       </c>
@@ -6834,8 +7650,14 @@
       <c r="O136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>40634</v>
       </c>
@@ -6881,8 +7703,14 @@
       <c r="O137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>40664</v>
       </c>
@@ -6928,8 +7756,14 @@
       <c r="O138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>40695</v>
       </c>
@@ -6975,8 +7809,14 @@
       <c r="O139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>40725</v>
       </c>
@@ -7022,8 +7862,14 @@
       <c r="O140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>40756</v>
       </c>
@@ -7069,8 +7915,14 @@
       <c r="O141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>40787</v>
       </c>
@@ -7116,8 +7968,14 @@
       <c r="O142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>40817</v>
       </c>
@@ -7163,8 +8021,14 @@
       <c r="O143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>40848</v>
       </c>
@@ -7210,8 +8074,14 @@
       <c r="O144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>40878</v>
       </c>
@@ -7257,8 +8127,14 @@
       <c r="O145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>40909</v>
       </c>
@@ -7304,8 +8180,14 @@
       <c r="O146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40940</v>
       </c>
@@ -7351,8 +8233,14 @@
       <c r="O147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40969</v>
       </c>
@@ -7398,8 +8286,14 @@
       <c r="O148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>41000</v>
       </c>
@@ -7445,8 +8339,14 @@
       <c r="O149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>41030</v>
       </c>
@@ -7492,8 +8392,14 @@
       <c r="O150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>41061</v>
       </c>
@@ -7539,8 +8445,14 @@
       <c r="O151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>41091</v>
       </c>
@@ -7586,8 +8498,14 @@
       <c r="O152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>41122</v>
       </c>
@@ -7633,8 +8551,14 @@
       <c r="O153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>41153</v>
       </c>
@@ -7680,8 +8604,14 @@
       <c r="O154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>41183</v>
       </c>
@@ -7727,8 +8657,14 @@
       <c r="O155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>41214</v>
       </c>
@@ -7774,8 +8710,14 @@
       <c r="O156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>41244</v>
       </c>
@@ -7821,8 +8763,14 @@
       <c r="O157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>41275</v>
       </c>
@@ -7868,8 +8816,14 @@
       <c r="O158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>41306</v>
       </c>
@@ -7915,8 +8869,14 @@
       <c r="O159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>41334</v>
       </c>
@@ -7962,8 +8922,14 @@
       <c r="O160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>41365</v>
       </c>
@@ -8009,8 +8975,14 @@
       <c r="O161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>41395</v>
       </c>
@@ -8056,8 +9028,14 @@
       <c r="O162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>41426</v>
       </c>
@@ -8103,8 +9081,14 @@
       <c r="O163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>41456</v>
       </c>
@@ -8150,8 +9134,14 @@
       <c r="O164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>41487</v>
       </c>
@@ -8197,8 +9187,14 @@
       <c r="O165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>41518</v>
       </c>
@@ -8244,8 +9240,14 @@
       <c r="O166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>41548</v>
       </c>
@@ -8291,8 +9293,14 @@
       <c r="O167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>41579</v>
       </c>
@@ -8338,8 +9346,14 @@
       <c r="O168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>41609</v>
       </c>
@@ -8385,8 +9399,14 @@
       <c r="O169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>41640</v>
       </c>
@@ -8432,8 +9452,14 @@
       <c r="O170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>41671</v>
       </c>
@@ -8479,8 +9505,14 @@
       <c r="O171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>41699</v>
       </c>
@@ -8526,8 +9558,14 @@
       <c r="O172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41730</v>
       </c>
@@ -8573,8 +9611,14 @@
       <c r="O173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41760</v>
       </c>
@@ -8620,8 +9664,14 @@
       <c r="O174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41791</v>
       </c>
@@ -8667,8 +9717,14 @@
       <c r="O175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41821</v>
       </c>
@@ -8714,8 +9770,14 @@
       <c r="O176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41852</v>
       </c>
@@ -8761,8 +9823,14 @@
       <c r="O177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41883</v>
       </c>
@@ -8808,8 +9876,14 @@
       <c r="O178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41913</v>
       </c>
@@ -8855,8 +9929,14 @@
       <c r="O179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41944</v>
       </c>
@@ -8902,8 +9982,14 @@
       <c r="O180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41974</v>
       </c>
@@ -8949,8 +10035,14 @@
       <c r="O181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>42005</v>
       </c>
@@ -8996,8 +10088,14 @@
       <c r="O182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>42036</v>
       </c>
@@ -9043,8 +10141,14 @@
       <c r="O183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42064</v>
       </c>
@@ -9090,8 +10194,14 @@
       <c r="O184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>42095</v>
       </c>
@@ -9137,8 +10247,14 @@
       <c r="O185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>42125</v>
       </c>
@@ -9184,8 +10300,14 @@
       <c r="O186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>42156</v>
       </c>
@@ -9231,8 +10353,14 @@
       <c r="O187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>42186</v>
       </c>
@@ -9278,8 +10406,14 @@
       <c r="O188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>42217</v>
       </c>
@@ -9325,8 +10459,14 @@
       <c r="O189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>42248</v>
       </c>
@@ -9372,8 +10512,14 @@
       <c r="O190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>42278</v>
       </c>
@@ -9419,8 +10565,14 @@
       <c r="O191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>42309</v>
       </c>
@@ -9466,8 +10618,14 @@
       <c r="O192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>42339</v>
       </c>
@@ -9513,8 +10671,14 @@
       <c r="O193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>42370</v>
       </c>
@@ -9560,8 +10724,14 @@
       <c r="O194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>42401</v>
       </c>
@@ -9607,8 +10777,14 @@
       <c r="O195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>42430</v>
       </c>
@@ -9654,8 +10830,14 @@
       <c r="O196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>42461</v>
       </c>
@@ -9701,8 +10883,14 @@
       <c r="O197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>42491</v>
       </c>
@@ -9748,8 +10936,14 @@
       <c r="O198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>42522</v>
       </c>
@@ -9795,8 +10989,14 @@
       <c r="O199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>42552</v>
       </c>
@@ -9842,8 +11042,14 @@
       <c r="O200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>42583</v>
       </c>
@@ -9889,8 +11095,14 @@
       <c r="O201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>42614</v>
       </c>
@@ -9936,8 +11148,14 @@
       <c r="O202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>42644</v>
       </c>
@@ -9983,8 +11201,14 @@
       <c r="O203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>42675</v>
       </c>
@@ -10030,8 +11254,14 @@
       <c r="O204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>42705</v>
       </c>
@@ -10077,8 +11307,14 @@
       <c r="O205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>42736</v>
       </c>
@@ -10124,8 +11360,14 @@
       <c r="O206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>42767</v>
       </c>
@@ -10171,8 +11413,14 @@
       <c r="O207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>42795</v>
       </c>
@@ -10218,8 +11466,14 @@
       <c r="O208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>42826</v>
       </c>
@@ -10265,8 +11519,14 @@
       <c r="O209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>42856</v>
       </c>
@@ -10312,8 +11572,14 @@
       <c r="O210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>42887</v>
       </c>
@@ -10359,8 +11625,14 @@
       <c r="O211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>42917</v>
       </c>
@@ -10406,8 +11678,14 @@
       <c r="O212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>42948</v>
       </c>
@@ -10453,8 +11731,14 @@
       <c r="O213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>42979</v>
       </c>
@@ -10500,8 +11784,14 @@
       <c r="O214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43009</v>
       </c>
@@ -10547,8 +11837,14 @@
       <c r="O215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43040</v>
       </c>
@@ -10594,8 +11890,14 @@
       <c r="O216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43070</v>
       </c>
@@ -10641,8 +11943,14 @@
       <c r="O217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43101</v>
       </c>
@@ -10688,8 +11996,14 @@
       <c r="O218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43132</v>
       </c>
@@ -10735,8 +12049,14 @@
       <c r="O219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43160</v>
       </c>
@@ -10782,8 +12102,14 @@
       <c r="O220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43191</v>
       </c>
@@ -10829,8 +12155,14 @@
       <c r="O221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43221</v>
       </c>
@@ -10876,8 +12208,14 @@
       <c r="O222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43252</v>
       </c>
@@ -10923,8 +12261,14 @@
       <c r="O223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43282</v>
       </c>
@@ -10970,8 +12314,14 @@
       <c r="O224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43313</v>
       </c>
@@ -11017,8 +12367,14 @@
       <c r="O225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43344</v>
       </c>
@@ -11064,8 +12420,14 @@
       <c r="O226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43374</v>
       </c>
@@ -11111,8 +12473,14 @@
       <c r="O227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43405</v>
       </c>
@@ -11158,8 +12526,14 @@
       <c r="O228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43435</v>
       </c>
@@ -11205,8 +12579,14 @@
       <c r="O229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43466</v>
       </c>
@@ -11252,8 +12632,14 @@
       <c r="O230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43497</v>
       </c>
@@ -11299,8 +12685,14 @@
       <c r="O231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43525</v>
       </c>
@@ -11346,8 +12738,14 @@
       <c r="O232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43556</v>
       </c>
@@ -11393,8 +12791,14 @@
       <c r="O233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43586</v>
       </c>
@@ -11440,8 +12844,14 @@
       <c r="O234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43617</v>
       </c>
@@ -11487,8 +12897,14 @@
       <c r="O235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43647</v>
       </c>
@@ -11534,8 +12950,14 @@
       <c r="O236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43678</v>
       </c>
@@ -11581,8 +13003,14 @@
       <c r="O237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43709</v>
       </c>
@@ -11628,8 +13056,14 @@
       <c r="O238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43739</v>
       </c>
@@ -11675,8 +13109,14 @@
       <c r="O239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43770</v>
       </c>
@@ -11722,8 +13162,14 @@
       <c r="O240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43800</v>
       </c>
@@ -11769,8 +13215,14 @@
       <c r="O241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43831</v>
       </c>
@@ -11816,8 +13268,14 @@
       <c r="O242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43862</v>
       </c>
@@ -11863,8 +13321,14 @@
       <c r="O243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43891</v>
       </c>
@@ -11910,8 +13374,14 @@
       <c r="O244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43922</v>
       </c>
@@ -11957,8 +13427,14 @@
       <c r="O245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43952</v>
       </c>
@@ -12004,8 +13480,14 @@
       <c r="O246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43983</v>
       </c>
@@ -12051,8 +13533,14 @@
       <c r="O247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44013</v>
       </c>
@@ -12098,8 +13586,14 @@
       <c r="O248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44044</v>
       </c>
@@ -12145,8 +13639,14 @@
       <c r="O249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44075</v>
       </c>
@@ -12192,8 +13692,14 @@
       <c r="O250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44105</v>
       </c>
@@ -12239,8 +13745,14 @@
       <c r="O251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44136</v>
       </c>
@@ -12286,8 +13798,14 @@
       <c r="O252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44166</v>
       </c>
@@ -12333,22 +13851,28 @@
       <c r="O253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>2685469</v>
+        <v>2685767</v>
       </c>
       <c r="C254">
-        <v>1185138</v>
+        <v>1185142</v>
       </c>
       <c r="D254">
-        <v>26925</v>
+        <v>26930</v>
       </c>
       <c r="E254">
-        <v>11535</v>
+        <v>11514</v>
       </c>
       <c r="F254">
         <v>41.033642</v>
@@ -12380,22 +13904,28 @@
       <c r="O254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>2213797</v>
+        <v>2214034</v>
       </c>
       <c r="C255">
-        <v>712175</v>
+        <v>712193</v>
       </c>
       <c r="D255">
-        <v>20712</v>
+        <v>20717</v>
       </c>
       <c r="E255">
-        <v>9037</v>
+        <v>9036</v>
       </c>
       <c r="F255">
         <v>50.436321</v>
@@ -12427,22 +13957,28 @@
       <c r="O255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>3162388</v>
+        <v>3162379</v>
       </c>
       <c r="C256">
-        <v>1130103</v>
+        <v>1130645</v>
       </c>
       <c r="D256">
-        <v>25982</v>
+        <v>26010</v>
       </c>
       <c r="E256">
-        <v>10579</v>
+        <v>10584</v>
       </c>
       <c r="F256">
         <v>65.449779000000007</v>
@@ -12474,22 +14010,28 @@
       <c r="O256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>3454084</v>
+        <v>3452944</v>
       </c>
       <c r="C257">
-        <v>1376050</v>
+        <v>1377367</v>
       </c>
       <c r="D257">
-        <v>29362</v>
+        <v>29349</v>
       </c>
       <c r="E257">
-        <v>10723</v>
+        <v>10690</v>
       </c>
       <c r="F257">
         <v>62.577359000000001</v>
@@ -12521,22 +14063,28 @@
       <c r="O257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>3785494</v>
+        <v>3784266</v>
       </c>
       <c r="C258">
-        <v>1655265</v>
+        <v>1656557</v>
       </c>
       <c r="D258">
-        <v>30060</v>
+        <v>30076</v>
       </c>
       <c r="E258">
-        <v>12198</v>
+        <v>12169</v>
       </c>
       <c r="F258">
         <v>62.689974999999997</v>
@@ -12568,22 +14116,28 @@
       <c r="O258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>3789268</v>
+        <v>3791459</v>
       </c>
       <c r="C259">
-        <v>1847458</v>
+        <v>1844126</v>
       </c>
       <c r="D259">
-        <v>30049</v>
+        <v>30069</v>
       </c>
       <c r="E259">
-        <v>13025</v>
+        <v>13040</v>
       </c>
       <c r="F259">
         <v>63.410818999999996</v>
@@ -12615,22 +14169,28 @@
       <c r="O259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P259">
+        <v>0</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>4353838</v>
+        <v>4352913</v>
       </c>
       <c r="C260">
-        <v>2115968</v>
+        <v>2117022</v>
       </c>
       <c r="D260">
-        <v>34418</v>
+        <v>34437</v>
       </c>
       <c r="E260">
-        <v>14272</v>
+        <v>14275</v>
       </c>
       <c r="F260">
         <v>69.822068999999999</v>
@@ -12660,6 +14220,595 @@
         <v>0</v>
       </c>
       <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B261">
+        <v>3961404</v>
+      </c>
+      <c r="C261">
+        <v>1954690</v>
+      </c>
+      <c r="D261">
+        <v>34324</v>
+      </c>
+      <c r="E261">
+        <v>13767</v>
+      </c>
+      <c r="F261">
+        <v>67.964499000000004</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B262">
+        <v>3577845</v>
+      </c>
+      <c r="C262">
+        <v>1483917</v>
+      </c>
+      <c r="D262">
+        <v>30171</v>
+      </c>
+      <c r="E262">
+        <v>12192</v>
+      </c>
+      <c r="F262">
+        <v>70.154246999999998</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B263">
+        <v>4118307</v>
+      </c>
+      <c r="C263">
+        <v>1719971</v>
+      </c>
+      <c r="D263">
+        <v>32974</v>
+      </c>
+      <c r="E263">
+        <v>13269</v>
+      </c>
+      <c r="F263">
+        <v>78.122951999999998</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B264">
+        <v>4313721</v>
+      </c>
+      <c r="C264">
+        <v>1924449</v>
+      </c>
+      <c r="D264">
+        <v>33291</v>
+      </c>
+      <c r="E264">
+        <v>14603</v>
+      </c>
+      <c r="F264">
+        <v>78.483883000000006</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B265">
+        <v>4681213</v>
+      </c>
+      <c r="C265">
+        <v>2034286</v>
+      </c>
+      <c r="D265">
+        <v>36234</v>
+      </c>
+      <c r="E265">
+        <v>17048</v>
+      </c>
+      <c r="F265">
+        <v>84.154004</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B266">
+        <v>3767905</v>
+      </c>
+      <c r="C266">
+        <v>2094697</v>
+      </c>
+      <c r="D266">
+        <v>33193</v>
+      </c>
+      <c r="E266">
+        <v>16690</v>
+      </c>
+      <c r="F266">
+        <v>70.563670000000002</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <v>1</v>
+      </c>
+      <c r="Q266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B267">
+        <v>3535885</v>
+      </c>
+      <c r="C267">
+        <v>1838837</v>
+      </c>
+      <c r="D267">
+        <v>28461</v>
+      </c>
+      <c r="E267">
+        <v>14526</v>
+      </c>
+      <c r="F267">
+        <v>72.052554999999998</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B268">
+        <v>4438186</v>
+      </c>
+      <c r="C268">
+        <v>2440988</v>
+      </c>
+      <c r="D268">
+        <v>33596</v>
+      </c>
+      <c r="E268">
+        <v>17062</v>
+      </c>
+      <c r="F268">
+        <v>88.358373999999998</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B269">
+        <v>4701502</v>
+      </c>
+      <c r="C269">
+        <v>2325751</v>
+      </c>
+      <c r="D269">
+        <v>35540</v>
+      </c>
+      <c r="E269">
+        <v>16314</v>
+      </c>
+      <c r="F269">
+        <v>82.897273999999996</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B270">
+        <v>4424819</v>
+      </c>
+      <c r="C270">
+        <v>2045556</v>
+      </c>
+      <c r="D270">
+        <v>35713</v>
+      </c>
+      <c r="E270">
+        <v>15280</v>
+      </c>
+      <c r="F270">
+        <v>91.245641000000006</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+      <c r="Q270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B271">
+        <v>4224212</v>
+      </c>
+      <c r="C271">
+        <v>2084684</v>
+      </c>
+      <c r="D271">
+        <v>35135</v>
+      </c>
+      <c r="E271">
+        <v>15424</v>
+      </c>
+      <c r="F271">
+        <v>88.424030000000002</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
         <v>0</v>
       </c>
     </row>

--- a/Clase_08/Base_Transporte_ARIMA.xlsx
+++ b/Clase_08/Base_Transporte_ARIMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEA35D-0EC6-E747-B71D-45013EFF664F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18680EDC-D461-E841-B8D9-F90F461EB45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34120" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Periodo</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>D_Feb2022</t>
+  </si>
+  <si>
+    <t>D_Jun2020</t>
+  </si>
+  <si>
+    <t>D_Jul2020</t>
+  </si>
+  <si>
+    <t>D_Mar2021</t>
+  </si>
+  <si>
+    <t>D_Jul</t>
+  </si>
+  <si>
+    <t>D_Feb</t>
   </si>
 </sst>
 </file>
@@ -441,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:Q271"/>
+  <dimension ref="A1:V271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="N269" sqref="N269"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,22 +502,37 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>36526</v>
       </c>
@@ -543,19 +573,34 @@
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>36557</v>
       </c>
@@ -607,8 +652,23 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>36586</v>
       </c>
@@ -660,8 +720,23 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>36617</v>
       </c>
@@ -713,8 +788,23 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>36647</v>
       </c>
@@ -766,8 +856,23 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>36678</v>
       </c>
@@ -819,8 +924,23 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36708</v>
       </c>
@@ -872,8 +992,23 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36739</v>
       </c>
@@ -925,8 +1060,23 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36770</v>
       </c>
@@ -978,8 +1128,23 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36800</v>
       </c>
@@ -1031,8 +1196,23 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36831</v>
       </c>
@@ -1084,8 +1264,23 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36861</v>
       </c>
@@ -1129,16 +1324,31 @@
         <v>0</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>1</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36892</v>
       </c>
@@ -1179,19 +1389,34 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>1</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36923</v>
       </c>
@@ -1243,8 +1468,23 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36951</v>
       </c>
@@ -1296,8 +1536,23 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>36982</v>
       </c>
@@ -1349,8 +1604,23 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37012</v>
       </c>
@@ -1402,8 +1672,23 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>37043</v>
       </c>
@@ -1455,8 +1740,23 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>37073</v>
       </c>
@@ -1508,8 +1808,23 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>37104</v>
       </c>
@@ -1561,8 +1876,23 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>37135</v>
       </c>
@@ -1614,8 +1944,23 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>37165</v>
       </c>
@@ -1667,8 +2012,23 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>37196</v>
       </c>
@@ -1720,8 +2080,23 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>37226</v>
       </c>
@@ -1765,16 +2140,31 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>1</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>37257</v>
       </c>
@@ -1815,19 +2205,34 @@
         <v>0</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>1</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>37288</v>
       </c>
@@ -1879,8 +2284,23 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>37316</v>
       </c>
@@ -1932,8 +2352,23 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>37347</v>
       </c>
@@ -1985,8 +2420,23 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>37377</v>
       </c>
@@ -2038,8 +2488,23 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>37408</v>
       </c>
@@ -2091,8 +2556,23 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>37438</v>
       </c>
@@ -2144,8 +2624,23 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>37469</v>
       </c>
@@ -2197,8 +2692,23 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37500</v>
       </c>
@@ -2250,8 +2760,23 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>37530</v>
       </c>
@@ -2303,8 +2828,23 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>37561</v>
       </c>
@@ -2356,8 +2896,23 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37591</v>
       </c>
@@ -2401,16 +2956,31 @@
         <v>0</v>
       </c>
       <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <v>1</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37622</v>
       </c>
@@ -2451,19 +3021,34 @@
         <v>0</v>
       </c>
       <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>1</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37653</v>
       </c>
@@ -2515,8 +3100,23 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37681</v>
       </c>
@@ -2568,8 +3168,23 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>37712</v>
       </c>
@@ -2621,8 +3236,23 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>37742</v>
       </c>
@@ -2674,8 +3304,23 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>37773</v>
       </c>
@@ -2727,8 +3372,23 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>37803</v>
       </c>
@@ -2780,8 +3440,23 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>37834</v>
       </c>
@@ -2833,8 +3508,23 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>37865</v>
       </c>
@@ -2886,8 +3576,23 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>37895</v>
       </c>
@@ -2939,8 +3644,23 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>37926</v>
       </c>
@@ -2992,8 +3712,23 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>37956</v>
       </c>
@@ -3037,16 +3772,31 @@
         <v>0</v>
       </c>
       <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>1</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>37987</v>
       </c>
@@ -3087,19 +3837,34 @@
         <v>0</v>
       </c>
       <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>1</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>38018</v>
       </c>
@@ -3151,8 +3916,23 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>38047</v>
       </c>
@@ -3204,8 +3984,23 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>38078</v>
       </c>
@@ -3257,8 +4052,23 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>38108</v>
       </c>
@@ -3310,8 +4120,23 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>38139</v>
       </c>
@@ -3363,8 +4188,23 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>38169</v>
       </c>
@@ -3416,8 +4256,23 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>38200</v>
       </c>
@@ -3469,8 +4324,23 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>38231</v>
       </c>
@@ -3522,8 +4392,23 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>38261</v>
       </c>
@@ -3575,8 +4460,23 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>38292</v>
       </c>
@@ -3628,8 +4528,23 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>38322</v>
       </c>
@@ -3673,16 +4588,31 @@
         <v>0</v>
       </c>
       <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
         <v>1</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>38353</v>
       </c>
@@ -3723,19 +4653,34 @@
         <v>0</v>
       </c>
       <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>1</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>38384</v>
       </c>
@@ -3787,8 +4732,23 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>38412</v>
       </c>
@@ -3840,8 +4800,23 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>38443</v>
       </c>
@@ -3893,8 +4868,23 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>38473</v>
       </c>
@@ -3946,8 +4936,23 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>38504</v>
       </c>
@@ -3999,8 +5004,23 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>38534</v>
       </c>
@@ -4052,8 +5072,23 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>38565</v>
       </c>
@@ -4105,8 +5140,23 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>38596</v>
       </c>
@@ -4158,8 +5208,23 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>38626</v>
       </c>
@@ -4211,8 +5276,23 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>38657</v>
       </c>
@@ -4264,8 +5344,23 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>38687</v>
       </c>
@@ -4309,16 +5404,31 @@
         <v>0</v>
       </c>
       <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
         <v>1</v>
       </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>38718</v>
       </c>
@@ -4359,19 +5469,34 @@
         <v>0</v>
       </c>
       <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
         <v>1</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38749</v>
       </c>
@@ -4423,8 +5548,23 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>38777</v>
       </c>
@@ -4476,8 +5616,23 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>38808</v>
       </c>
@@ -4529,8 +5684,23 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>38838</v>
       </c>
@@ -4582,8 +5752,23 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>38869</v>
       </c>
@@ -4635,8 +5820,23 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38899</v>
       </c>
@@ -4688,8 +5888,23 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>38930</v>
       </c>
@@ -4741,8 +5956,23 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38961</v>
       </c>
@@ -4794,8 +6024,23 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>38991</v>
       </c>
@@ -4847,8 +6092,23 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>39022</v>
       </c>
@@ -4900,8 +6160,23 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>39052</v>
       </c>
@@ -4945,16 +6220,31 @@
         <v>0</v>
       </c>
       <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
         <v>1</v>
       </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>39083</v>
       </c>
@@ -4995,19 +6285,34 @@
         <v>0</v>
       </c>
       <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
         <v>1</v>
       </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>39114</v>
       </c>
@@ -5059,8 +6364,23 @@
       <c r="Q87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>39142</v>
       </c>
@@ -5112,8 +6432,23 @@
       <c r="Q88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>39173</v>
       </c>
@@ -5165,8 +6500,23 @@
       <c r="Q89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>39203</v>
       </c>
@@ -5218,8 +6568,23 @@
       <c r="Q90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>39234</v>
       </c>
@@ -5271,8 +6636,23 @@
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>39264</v>
       </c>
@@ -5324,8 +6704,23 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>39295</v>
       </c>
@@ -5377,8 +6772,23 @@
       <c r="Q93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>39326</v>
       </c>
@@ -5430,8 +6840,23 @@
       <c r="Q94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>39356</v>
       </c>
@@ -5483,8 +6908,23 @@
       <c r="Q95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>39387</v>
       </c>
@@ -5536,8 +6976,23 @@
       <c r="Q96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>39417</v>
       </c>
@@ -5581,16 +7036,31 @@
         <v>0</v>
       </c>
       <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
         <v>1</v>
       </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>39448</v>
       </c>
@@ -5631,19 +7101,34 @@
         <v>0</v>
       </c>
       <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
         <v>1</v>
       </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>39479</v>
       </c>
@@ -5695,8 +7180,23 @@
       <c r="Q99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>39508</v>
       </c>
@@ -5748,8 +7248,23 @@
       <c r="Q100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>39539</v>
       </c>
@@ -5801,8 +7316,23 @@
       <c r="Q101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>39569</v>
       </c>
@@ -5854,8 +7384,23 @@
       <c r="Q102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>39600</v>
       </c>
@@ -5907,8 +7452,23 @@
       <c r="Q103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>39630</v>
       </c>
@@ -5960,8 +7520,23 @@
       <c r="Q104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>39661</v>
       </c>
@@ -6013,8 +7588,23 @@
       <c r="Q105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>39692</v>
       </c>
@@ -6066,8 +7656,23 @@
       <c r="Q106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>39722</v>
       </c>
@@ -6119,8 +7724,23 @@
       <c r="Q107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>39753</v>
       </c>
@@ -6172,8 +7792,23 @@
       <c r="Q108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>39783</v>
       </c>
@@ -6217,16 +7852,31 @@
         <v>0</v>
       </c>
       <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
         <v>1</v>
       </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>39814</v>
       </c>
@@ -6267,19 +7917,34 @@
         <v>0</v>
       </c>
       <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
         <v>1</v>
       </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>39845</v>
       </c>
@@ -6331,8 +7996,23 @@
       <c r="Q111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>39873</v>
       </c>
@@ -6384,8 +8064,23 @@
       <c r="Q112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>39904</v>
       </c>
@@ -6437,8 +8132,23 @@
       <c r="Q113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>39934</v>
       </c>
@@ -6490,8 +8200,23 @@
       <c r="Q114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>39965</v>
       </c>
@@ -6543,8 +8268,23 @@
       <c r="Q115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>39995</v>
       </c>
@@ -6596,8 +8336,23 @@
       <c r="Q116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>40026</v>
       </c>
@@ -6649,8 +8404,23 @@
       <c r="Q117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>40057</v>
       </c>
@@ -6702,8 +8472,23 @@
       <c r="Q118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>40087</v>
       </c>
@@ -6755,8 +8540,23 @@
       <c r="Q119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>40118</v>
       </c>
@@ -6808,8 +8608,23 @@
       <c r="Q120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>40148</v>
       </c>
@@ -6853,16 +8668,31 @@
         <v>0</v>
       </c>
       <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
         <v>1</v>
       </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>40179</v>
       </c>
@@ -6903,19 +8733,34 @@
         <v>0</v>
       </c>
       <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
         <v>1</v>
       </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>40210</v>
       </c>
@@ -6967,8 +8812,23 @@
       <c r="Q123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>40238</v>
       </c>
@@ -7020,8 +8880,23 @@
       <c r="Q124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>40269</v>
       </c>
@@ -7073,8 +8948,23 @@
       <c r="Q125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>40299</v>
       </c>
@@ -7126,8 +9016,23 @@
       <c r="Q126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>40330</v>
       </c>
@@ -7179,8 +9084,23 @@
       <c r="Q127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>40360</v>
       </c>
@@ -7232,8 +9152,23 @@
       <c r="Q128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>1</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>40391</v>
       </c>
@@ -7285,8 +9220,23 @@
       <c r="Q129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>40422</v>
       </c>
@@ -7338,8 +9288,23 @@
       <c r="Q130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>40452</v>
       </c>
@@ -7391,8 +9356,23 @@
       <c r="Q131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>40483</v>
       </c>
@@ -7444,8 +9424,23 @@
       <c r="Q132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>40513</v>
       </c>
@@ -7489,16 +9484,31 @@
         <v>0</v>
       </c>
       <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
         <v>1</v>
       </c>
-      <c r="P133">
-        <v>0</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>40544</v>
       </c>
@@ -7539,19 +9549,34 @@
         <v>0</v>
       </c>
       <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
         <v>1</v>
       </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>40575</v>
       </c>
@@ -7603,8 +9628,23 @@
       <c r="Q135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R135">
+        <v>1</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>40603</v>
       </c>
@@ -7656,8 +9696,23 @@
       <c r="Q136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>40634</v>
       </c>
@@ -7709,8 +9764,23 @@
       <c r="Q137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>40664</v>
       </c>
@@ -7762,8 +9832,23 @@
       <c r="Q138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>40695</v>
       </c>
@@ -7815,8 +9900,23 @@
       <c r="Q139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>40725</v>
       </c>
@@ -7868,8 +9968,23 @@
       <c r="Q140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>1</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>40756</v>
       </c>
@@ -7921,8 +10036,23 @@
       <c r="Q141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>40787</v>
       </c>
@@ -7974,8 +10104,23 @@
       <c r="Q142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>40817</v>
       </c>
@@ -8027,8 +10172,23 @@
       <c r="Q143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>40848</v>
       </c>
@@ -8080,8 +10240,23 @@
       <c r="Q144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>40878</v>
       </c>
@@ -8125,16 +10300,31 @@
         <v>0</v>
       </c>
       <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
         <v>1</v>
       </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>40909</v>
       </c>
@@ -8175,19 +10365,34 @@
         <v>0</v>
       </c>
       <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
         <v>1</v>
       </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146">
-        <v>0</v>
-      </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40940</v>
       </c>
@@ -8239,8 +10444,23 @@
       <c r="Q147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40969</v>
       </c>
@@ -8292,8 +10512,23 @@
       <c r="Q148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>41000</v>
       </c>
@@ -8345,8 +10580,23 @@
       <c r="Q149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>41030</v>
       </c>
@@ -8398,8 +10648,23 @@
       <c r="Q150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>41061</v>
       </c>
@@ -8451,8 +10716,23 @@
       <c r="Q151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>41091</v>
       </c>
@@ -8504,8 +10784,23 @@
       <c r="Q152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>1</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>41122</v>
       </c>
@@ -8557,8 +10852,23 @@
       <c r="Q153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>41153</v>
       </c>
@@ -8610,8 +10920,23 @@
       <c r="Q154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>0</v>
+      </c>
+      <c r="V154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>41183</v>
       </c>
@@ -8663,8 +10988,23 @@
       <c r="Q155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>41214</v>
       </c>
@@ -8716,8 +11056,23 @@
       <c r="Q156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>41244</v>
       </c>
@@ -8761,16 +11116,31 @@
         <v>0</v>
       </c>
       <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
         <v>1</v>
       </c>
-      <c r="P157">
-        <v>0</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U157">
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>41275</v>
       </c>
@@ -8811,19 +11181,34 @@
         <v>0</v>
       </c>
       <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
         <v>1</v>
       </c>
-      <c r="O158">
-        <v>0</v>
-      </c>
-      <c r="P158">
-        <v>0</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>41306</v>
       </c>
@@ -8875,8 +11260,23 @@
       <c r="Q159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R159">
+        <v>1</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>41334</v>
       </c>
@@ -8928,8 +11328,23 @@
       <c r="Q160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>41365</v>
       </c>
@@ -8981,8 +11396,23 @@
       <c r="Q161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>41395</v>
       </c>
@@ -9034,8 +11464,23 @@
       <c r="Q162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>41426</v>
       </c>
@@ -9087,8 +11532,23 @@
       <c r="Q163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
+      <c r="V163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>41456</v>
       </c>
@@ -9140,8 +11600,23 @@
       <c r="Q164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>1</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>41487</v>
       </c>
@@ -9193,8 +11668,23 @@
       <c r="Q165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>41518</v>
       </c>
@@ -9246,8 +11736,23 @@
       <c r="Q166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R166">
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>41548</v>
       </c>
@@ -9299,8 +11804,23 @@
       <c r="Q167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>41579</v>
       </c>
@@ -9352,8 +11872,23 @@
       <c r="Q168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>41609</v>
       </c>
@@ -9397,16 +11932,31 @@
         <v>0</v>
       </c>
       <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
         <v>1</v>
       </c>
-      <c r="P169">
-        <v>0</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U169">
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>41640</v>
       </c>
@@ -9447,19 +11997,34 @@
         <v>0</v>
       </c>
       <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
         <v>1</v>
       </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-      <c r="P170">
-        <v>0</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>41671</v>
       </c>
@@ -9511,8 +12076,23 @@
       <c r="Q171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R171">
+        <v>1</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>41699</v>
       </c>
@@ -9564,8 +12144,23 @@
       <c r="Q172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41730</v>
       </c>
@@ -9617,8 +12212,23 @@
       <c r="Q173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41760</v>
       </c>
@@ -9670,8 +12280,23 @@
       <c r="Q174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41791</v>
       </c>
@@ -9723,8 +12348,23 @@
       <c r="Q175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+      <c r="V175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41821</v>
       </c>
@@ -9776,8 +12416,23 @@
       <c r="Q176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>1</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41852</v>
       </c>
@@ -9829,8 +12484,23 @@
       <c r="Q177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41883</v>
       </c>
@@ -9882,8 +12552,23 @@
       <c r="Q178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41913</v>
       </c>
@@ -9935,8 +12620,23 @@
       <c r="Q179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41944</v>
       </c>
@@ -9988,8 +12688,23 @@
       <c r="Q180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41974</v>
       </c>
@@ -10033,16 +12748,31 @@
         <v>0</v>
       </c>
       <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
         <v>1</v>
       </c>
-      <c r="P181">
-        <v>0</v>
-      </c>
-      <c r="Q181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>42005</v>
       </c>
@@ -10083,19 +12813,34 @@
         <v>0</v>
       </c>
       <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
         <v>1</v>
       </c>
-      <c r="O182">
-        <v>0</v>
-      </c>
-      <c r="P182">
-        <v>0</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <v>0</v>
+      </c>
+      <c r="V182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>42036</v>
       </c>
@@ -10147,8 +12892,23 @@
       <c r="Q183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R183">
+        <v>1</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+      <c r="V183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42064</v>
       </c>
@@ -10200,8 +12960,23 @@
       <c r="Q184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>42095</v>
       </c>
@@ -10253,8 +13028,23 @@
       <c r="Q185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <v>0</v>
+      </c>
+      <c r="V185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>42125</v>
       </c>
@@ -10306,8 +13096,23 @@
       <c r="Q186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>42156</v>
       </c>
@@ -10359,8 +13164,23 @@
       <c r="Q187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>42186</v>
       </c>
@@ -10412,8 +13232,23 @@
       <c r="Q188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>1</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>42217</v>
       </c>
@@ -10465,8 +13300,23 @@
       <c r="Q189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>42248</v>
       </c>
@@ -10518,8 +13368,23 @@
       <c r="Q190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+      <c r="V190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>42278</v>
       </c>
@@ -10571,8 +13436,23 @@
       <c r="Q191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R191">
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+      <c r="V191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>42309</v>
       </c>
@@ -10624,8 +13504,23 @@
       <c r="Q192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+      <c r="V192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>42339</v>
       </c>
@@ -10669,16 +13564,31 @@
         <v>0</v>
       </c>
       <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
         <v>1</v>
       </c>
-      <c r="P193">
-        <v>0</v>
-      </c>
-      <c r="Q193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U193">
+        <v>0</v>
+      </c>
+      <c r="V193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>42370</v>
       </c>
@@ -10719,19 +13629,34 @@
         <v>0</v>
       </c>
       <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
         <v>1</v>
       </c>
-      <c r="O194">
-        <v>0</v>
-      </c>
-      <c r="P194">
-        <v>0</v>
-      </c>
-      <c r="Q194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>42401</v>
       </c>
@@ -10783,8 +13708,23 @@
       <c r="Q195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R195">
+        <v>1</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+      <c r="V195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>42430</v>
       </c>
@@ -10836,8 +13776,23 @@
       <c r="Q196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>42461</v>
       </c>
@@ -10889,8 +13844,23 @@
       <c r="Q197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>0</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>42491</v>
       </c>
@@ -10942,8 +13912,23 @@
       <c r="Q198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R198">
+        <v>0</v>
+      </c>
+      <c r="S198">
+        <v>0</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <v>0</v>
+      </c>
+      <c r="V198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>42522</v>
       </c>
@@ -10995,8 +13980,23 @@
       <c r="Q199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>42552</v>
       </c>
@@ -11048,8 +14048,23 @@
       <c r="Q200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <v>1</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>42583</v>
       </c>
@@ -11101,8 +14116,23 @@
       <c r="Q201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>42614</v>
       </c>
@@ -11154,8 +14184,23 @@
       <c r="Q202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>42644</v>
       </c>
@@ -11207,8 +14252,23 @@
       <c r="Q203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+      <c r="U203">
+        <v>0</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>42675</v>
       </c>
@@ -11260,8 +14320,23 @@
       <c r="Q204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>42705</v>
       </c>
@@ -11305,16 +14380,31 @@
         <v>0</v>
       </c>
       <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
         <v>1</v>
       </c>
-      <c r="P205">
-        <v>0</v>
-      </c>
-      <c r="Q205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U205">
+        <v>0</v>
+      </c>
+      <c r="V205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>42736</v>
       </c>
@@ -11355,19 +14445,34 @@
         <v>0</v>
       </c>
       <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
         <v>1</v>
       </c>
-      <c r="O206">
-        <v>0</v>
-      </c>
-      <c r="P206">
-        <v>0</v>
-      </c>
-      <c r="Q206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>42767</v>
       </c>
@@ -11419,8 +14524,23 @@
       <c r="Q207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R207">
+        <v>1</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>42795</v>
       </c>
@@ -11472,8 +14592,23 @@
       <c r="Q208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>42826</v>
       </c>
@@ -11525,8 +14660,23 @@
       <c r="Q209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>42856</v>
       </c>
@@ -11578,8 +14728,23 @@
       <c r="Q210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R210">
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>42887</v>
       </c>
@@ -11631,8 +14796,23 @@
       <c r="Q211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R211">
+        <v>0</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>42917</v>
       </c>
@@ -11684,8 +14864,23 @@
       <c r="Q212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R212">
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <v>1</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>0</v>
+      </c>
+      <c r="V212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>42948</v>
       </c>
@@ -11737,8 +14932,23 @@
       <c r="Q213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>42979</v>
       </c>
@@ -11790,8 +15000,23 @@
       <c r="Q214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+      <c r="V214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43009</v>
       </c>
@@ -11843,8 +15068,23 @@
       <c r="Q215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R215">
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+      <c r="V215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43040</v>
       </c>
@@ -11896,8 +15136,23 @@
       <c r="Q216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216">
+        <v>0</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43070</v>
       </c>
@@ -11941,16 +15196,31 @@
         <v>0</v>
       </c>
       <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
         <v>1</v>
       </c>
-      <c r="P217">
-        <v>0</v>
-      </c>
-      <c r="Q217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U217">
+        <v>0</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43101</v>
       </c>
@@ -11991,19 +15261,34 @@
         <v>0</v>
       </c>
       <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
         <v>1</v>
       </c>
-      <c r="O218">
-        <v>0</v>
-      </c>
-      <c r="P218">
-        <v>0</v>
-      </c>
-      <c r="Q218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43132</v>
       </c>
@@ -12055,8 +15340,23 @@
       <c r="Q219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R219">
+        <v>1</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43160</v>
       </c>
@@ -12108,8 +15408,23 @@
       <c r="Q220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43191</v>
       </c>
@@ -12161,8 +15476,23 @@
       <c r="Q221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43221</v>
       </c>
@@ -12214,8 +15544,23 @@
       <c r="Q222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43252</v>
       </c>
@@ -12267,8 +15612,23 @@
       <c r="Q223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43282</v>
       </c>
@@ -12320,8 +15680,23 @@
       <c r="Q224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>1</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43313</v>
       </c>
@@ -12373,8 +15748,23 @@
       <c r="Q225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43344</v>
       </c>
@@ -12426,8 +15816,23 @@
       <c r="Q226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43374</v>
       </c>
@@ -12479,8 +15884,23 @@
       <c r="Q227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43405</v>
       </c>
@@ -12532,8 +15952,23 @@
       <c r="Q228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43435</v>
       </c>
@@ -12577,16 +16012,31 @@
         <v>0</v>
       </c>
       <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
         <v>1</v>
       </c>
-      <c r="P229">
-        <v>0</v>
-      </c>
-      <c r="Q229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43466</v>
       </c>
@@ -12627,19 +16077,34 @@
         <v>0</v>
       </c>
       <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
         <v>1</v>
       </c>
-      <c r="O230">
-        <v>0</v>
-      </c>
-      <c r="P230">
-        <v>0</v>
-      </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43497</v>
       </c>
@@ -12691,8 +16156,23 @@
       <c r="Q231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R231">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43525</v>
       </c>
@@ -12744,8 +16224,23 @@
       <c r="Q232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43556</v>
       </c>
@@ -12797,8 +16292,23 @@
       <c r="Q233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43586</v>
       </c>
@@ -12850,8 +16360,23 @@
       <c r="Q234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <v>0</v>
+      </c>
+      <c r="V234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43617</v>
       </c>
@@ -12903,8 +16428,23 @@
       <c r="Q235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>0</v>
+      </c>
+      <c r="V235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43647</v>
       </c>
@@ -12956,8 +16496,23 @@
       <c r="Q236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>1</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <v>0</v>
+      </c>
+      <c r="V236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43678</v>
       </c>
@@ -13009,8 +16564,23 @@
       <c r="Q237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>0</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43709</v>
       </c>
@@ -13062,8 +16632,23 @@
       <c r="Q238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <v>0</v>
+      </c>
+      <c r="V238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43739</v>
       </c>
@@ -13115,8 +16700,23 @@
       <c r="Q239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R239">
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <v>0</v>
+      </c>
+      <c r="V239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43770</v>
       </c>
@@ -13168,8 +16768,23 @@
       <c r="Q240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R240">
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <v>0</v>
+      </c>
+      <c r="T240">
+        <v>0</v>
+      </c>
+      <c r="U240">
+        <v>0</v>
+      </c>
+      <c r="V240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43800</v>
       </c>
@@ -13213,16 +16828,31 @@
         <v>0</v>
       </c>
       <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+      <c r="T241">
         <v>1</v>
       </c>
-      <c r="P241">
-        <v>0</v>
-      </c>
-      <c r="Q241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U241">
+        <v>0</v>
+      </c>
+      <c r="V241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43831</v>
       </c>
@@ -13263,19 +16893,34 @@
         <v>0</v>
       </c>
       <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
         <v>1</v>
       </c>
-      <c r="O242">
-        <v>0</v>
-      </c>
-      <c r="P242">
-        <v>0</v>
-      </c>
-      <c r="Q242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <v>0</v>
+      </c>
+      <c r="T242">
+        <v>0</v>
+      </c>
+      <c r="U242">
+        <v>0</v>
+      </c>
+      <c r="V242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43862</v>
       </c>
@@ -13327,8 +16972,23 @@
       <c r="Q243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R243">
+        <v>1</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="T243">
+        <v>0</v>
+      </c>
+      <c r="U243">
+        <v>0</v>
+      </c>
+      <c r="V243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43891</v>
       </c>
@@ -13380,8 +17040,23 @@
       <c r="Q244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R244">
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+      <c r="U244">
+        <v>0</v>
+      </c>
+      <c r="V244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43922</v>
       </c>
@@ -13433,8 +17108,23 @@
       <c r="Q245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+      <c r="T245">
+        <v>0</v>
+      </c>
+      <c r="U245">
+        <v>0</v>
+      </c>
+      <c r="V245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43952</v>
       </c>
@@ -13486,8 +17176,23 @@
       <c r="Q246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R246">
+        <v>0</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>0</v>
+      </c>
+      <c r="V246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43983</v>
       </c>
@@ -13525,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -13539,8 +17244,23 @@
       <c r="Q247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R247">
+        <v>0</v>
+      </c>
+      <c r="S247">
+        <v>0</v>
+      </c>
+      <c r="T247">
+        <v>0</v>
+      </c>
+      <c r="U247">
+        <v>0</v>
+      </c>
+      <c r="V247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44013</v>
       </c>
@@ -13581,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="N248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O248">
         <v>0</v>
@@ -13592,8 +17312,23 @@
       <c r="Q248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R248">
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <v>1</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>0</v>
+      </c>
+      <c r="V248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44044</v>
       </c>
@@ -13645,8 +17380,23 @@
       <c r="Q249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R249">
+        <v>0</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <v>0</v>
+      </c>
+      <c r="V249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44075</v>
       </c>
@@ -13698,8 +17448,23 @@
       <c r="Q250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R250">
+        <v>0</v>
+      </c>
+      <c r="S250">
+        <v>0</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>0</v>
+      </c>
+      <c r="V250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44105</v>
       </c>
@@ -13751,8 +17516,23 @@
       <c r="Q251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R251">
+        <v>0</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+      <c r="U251">
+        <v>0</v>
+      </c>
+      <c r="V251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44136</v>
       </c>
@@ -13804,8 +17584,23 @@
       <c r="Q252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R252">
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+      <c r="U252">
+        <v>0</v>
+      </c>
+      <c r="V252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44166</v>
       </c>
@@ -13849,16 +17644,31 @@
         <v>0</v>
       </c>
       <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <v>0</v>
+      </c>
+      <c r="T253">
         <v>1</v>
       </c>
-      <c r="P253">
-        <v>0</v>
-      </c>
-      <c r="Q253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U253">
+        <v>0</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44197</v>
       </c>
@@ -13896,22 +17706,37 @@
         <v>0</v>
       </c>
       <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
         <v>1</v>
       </c>
-      <c r="N254">
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
         <v>1</v>
       </c>
-      <c r="O254">
-        <v>0</v>
-      </c>
-      <c r="P254">
-        <v>0</v>
-      </c>
-      <c r="Q254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R254">
+        <v>0</v>
+      </c>
+      <c r="S254">
+        <v>0</v>
+      </c>
+      <c r="T254">
+        <v>0</v>
+      </c>
+      <c r="U254">
+        <v>0</v>
+      </c>
+      <c r="V254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44228</v>
       </c>
@@ -13963,8 +17788,23 @@
       <c r="Q255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R255">
+        <v>1</v>
+      </c>
+      <c r="S255">
+        <v>0</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+      <c r="U255">
+        <v>0</v>
+      </c>
+      <c r="V255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44256</v>
       </c>
@@ -14011,13 +17851,28 @@
         <v>0</v>
       </c>
       <c r="P256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R256">
+        <v>0</v>
+      </c>
+      <c r="S256">
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <v>0</v>
+      </c>
+      <c r="U256">
+        <v>0</v>
+      </c>
+      <c r="V256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44287</v>
       </c>
@@ -14069,8 +17924,23 @@
       <c r="Q257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R257">
+        <v>0</v>
+      </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+      <c r="T257">
+        <v>0</v>
+      </c>
+      <c r="U257">
+        <v>0</v>
+      </c>
+      <c r="V257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44317</v>
       </c>
@@ -14122,8 +17992,23 @@
       <c r="Q258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R258">
+        <v>0</v>
+      </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+      <c r="U258">
+        <v>0</v>
+      </c>
+      <c r="V258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44348</v>
       </c>
@@ -14175,8 +18060,23 @@
       <c r="Q259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R259">
+        <v>0</v>
+      </c>
+      <c r="S259">
+        <v>0</v>
+      </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
+      <c r="U259">
+        <v>0</v>
+      </c>
+      <c r="V259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44378</v>
       </c>
@@ -14228,8 +18128,23 @@
       <c r="Q260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R260">
+        <v>0</v>
+      </c>
+      <c r="S260">
+        <v>1</v>
+      </c>
+      <c r="T260">
+        <v>0</v>
+      </c>
+      <c r="U260">
+        <v>0</v>
+      </c>
+      <c r="V260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44409</v>
       </c>
@@ -14281,8 +18196,23 @@
       <c r="Q261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R261">
+        <v>0</v>
+      </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+      <c r="U261">
+        <v>0</v>
+      </c>
+      <c r="V261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44440</v>
       </c>
@@ -14334,8 +18264,23 @@
       <c r="Q262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R262">
+        <v>0</v>
+      </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>0</v>
+      </c>
+      <c r="V262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44470</v>
       </c>
@@ -14387,8 +18332,23 @@
       <c r="Q263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R263">
+        <v>0</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="U263">
+        <v>0</v>
+      </c>
+      <c r="V263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44501</v>
       </c>
@@ -14440,8 +18400,23 @@
       <c r="Q264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>0</v>
+      </c>
+      <c r="U264">
+        <v>0</v>
+      </c>
+      <c r="V264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44531</v>
       </c>
@@ -14493,8 +18468,23 @@
       <c r="Q265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R265">
+        <v>0</v>
+      </c>
+      <c r="S265">
+        <v>0</v>
+      </c>
+      <c r="T265">
+        <v>1</v>
+      </c>
+      <c r="U265">
+        <v>0</v>
+      </c>
+      <c r="V265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44562</v>
       </c>
@@ -14541,13 +18531,28 @@
         <v>0</v>
       </c>
       <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266">
         <v>1</v>
       </c>
-      <c r="Q266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R266">
+        <v>0</v>
+      </c>
+      <c r="S266">
+        <v>0</v>
+      </c>
+      <c r="T266">
+        <v>0</v>
+      </c>
+      <c r="U266">
+        <v>1</v>
+      </c>
+      <c r="V266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44593</v>
       </c>
@@ -14597,10 +18602,25 @@
         <v>0</v>
       </c>
       <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S267">
+        <v>0</v>
+      </c>
+      <c r="T267">
+        <v>0</v>
+      </c>
+      <c r="U267">
+        <v>0</v>
+      </c>
+      <c r="V267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44621</v>
       </c>
@@ -14652,8 +18672,23 @@
       <c r="Q268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R268">
+        <v>0</v>
+      </c>
+      <c r="S268">
+        <v>0</v>
+      </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
+      <c r="U268">
+        <v>0</v>
+      </c>
+      <c r="V268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44652</v>
       </c>
@@ -14705,8 +18740,23 @@
       <c r="Q269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R269">
+        <v>0</v>
+      </c>
+      <c r="S269">
+        <v>0</v>
+      </c>
+      <c r="T269">
+        <v>0</v>
+      </c>
+      <c r="U269">
+        <v>0</v>
+      </c>
+      <c r="V269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44682</v>
       </c>
@@ -14758,8 +18808,23 @@
       <c r="Q270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R270">
+        <v>0</v>
+      </c>
+      <c r="S270">
+        <v>0</v>
+      </c>
+      <c r="T270">
+        <v>0</v>
+      </c>
+      <c r="U270">
+        <v>0</v>
+      </c>
+      <c r="V270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44713</v>
       </c>
@@ -14809,6 +18874,21 @@
         <v>0</v>
       </c>
       <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <v>0</v>
+      </c>
+      <c r="S271">
+        <v>0</v>
+      </c>
+      <c r="T271">
+        <v>0</v>
+      </c>
+      <c r="U271">
+        <v>0</v>
+      </c>
+      <c r="V271">
         <v>0</v>
       </c>
     </row>
